--- a/Temperatura_fbr1.xlsx
+++ b/Temperatura_fbr1.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18.5440655589104</v>
+        <v>51.23849408149721</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18.53111044645311</v>
+        <v>57.31346158027651</v>
       </c>
     </row>
     <row r="4">
@@ -461,10 +461,4234 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>18.5409824275971</v>
+        <v>44.20549734115605</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>58.49488703250887</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>73.85631227970129</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>53.68738786220553</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>75.94539039611823</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>42.9931544733048</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>40.54569794178013</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>76.2248591947556</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>54.56459998607636</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>52.73270999431611</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>68.82204565525058</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>72.47526814937595</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>66.22035970211033</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>47.27324280261996</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>48.89009514808657</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>64.47532724857331</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>55.55409637451174</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>43.06300345897677</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>41.38391226291662</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>48.79028912067417</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>76.65184804439548</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>78.23141139030463</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>58.69176367759707</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>77.45325024127965</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>71.97266807079319</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>56.91066752910615</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>73.18713700771332</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>65.68047724723817</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>78.85643595695501</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>41.05096719741823</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>42.25556746482852</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>77.94933302402501</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>76.82047645092013</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>77.6015849542618</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>77.51761516094211</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>45.5221103191376</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>41.20081863880159</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>75.93709806442263</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>67.93783936023715</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>49.65447989940645</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>54.52573464870454</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>75.95396090507512</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>45.89727209568025</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>51.63306203365329</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>41.34113257408143</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>44.69938782215121</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>78.3309458637238</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>56.74080719470982</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>77.67034110069278</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>61.93937723159792</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>49.51717292785645</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>76.54018636703495</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>48.23408693313604</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>42.4838384008408</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>76.11381348133091</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>42.95826309680945</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>75.00717134952549</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>74.98502976417547</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>78.77719517707828</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>74.6006748914719</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>75.69093768119814</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>59.97567095756534</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>46.73253243923193</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>41.32105082511907</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>41.12164409160619</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>79.24098952770237</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>40.60993039608002</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>78.76471693992619</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>68.4117871809006</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>45.36142983436588</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>44.3436255979538</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>79.17018016815189</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>45.4470488214493</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>74.16614876270296</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>75.7112976074219</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>80.90123090267184</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>75.37136499404909</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>64.87941946029667</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>62.2139845514298</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>48.03337541580203</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>56.41595576286318</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>61.97646090984347</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>67.99295157432562</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>45.92524215698245</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>50.44751690864564</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>44.78610627174379</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>46.2113607168198</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>79.31632920265201</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>48.87104000568394</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>54.22562774658206</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>47.62229565620424</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>62.22172715187077</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>51.53756775379185</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>46.86558727264406</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>78.97995990753179</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>41.9545068120957</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>71.1431633472443</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>64.98045741558076</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>54.12945127010346</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>62.38459993839268</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>75.74940789222723</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>67.59990035057069</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>41.2311863231659</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>67.52668674468998</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>40.74044851779939</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>62.30398814201357</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>47.92767467975619</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>57.77218250751497</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>67.12835677623752</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>43.45818075180057</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>55.81492067337041</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>78.50807192325595</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>63.68900623321537</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>60.49835278511051</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>64.18200919628146</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>67.35723705291753</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>63.99151075840001</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>52.7473805332184</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>58.22974436283113</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>49.37747495651251</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>62.9978350877762</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>75.45993133544926</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>54.47431821823125</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>71.3802763462067</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>63.10696005344391</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>68.26015408039098</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>59.04684370517737</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>62.45842950820929</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>78.51609270095827</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>45.23440879821783</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>77.78563895225528</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>64.94186363220217</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>48.77863216876983</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>69.29708631515507</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>76.8729194879532</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>41.86868250370026</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>55.98019108295443</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>67.25935177326204</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>75.86196371078495</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>50.58289650917055</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>46.89519990444188</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>46.06933135509496</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>76.32905644893651</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>78.52857093811036</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>41.52018600463873</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>56.37448085784916</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>67.90569001674658</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>75.22789175987248</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>65.00479130268099</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>78.34204646110538</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>41.76490251541139</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>76.04101714134219</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>61.38358568668366</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>64.59775173664093</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>69.49738718986515</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>40.80460811614995</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>40.82147095680239</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>63.55471947193149</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>78.65175047874453</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>66.15990251064306</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>68.88627810955052</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>78.38324318885805</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>48.78405000209813</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>64.52015352725982</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>51.87640752792362</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>74.36199217796332</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>59.20018560886388</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>79.31077228069307</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>44.39928754329685</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>75.88068106651309</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>71.83132090568546</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>48.98435087680821</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>68.05375979900361</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>61.82846398353581</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>63.28155602455143</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>69.77904829025272</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>46.63163357257849</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>74.625419421196</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>75.08359724044806</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>49.02794522762304</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>44.58066574096682</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>74.08717953681946</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>68.38422776222234</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>78.15175996780397</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>70.57633743762972</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>52.64311704635622</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>75.532522354126</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>67.6402757930756</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>65.59047365665435</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>61.3393025159836</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>69.44467259883885</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>73.46626801967625</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>70.39152838706974</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>77.51583350181585</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>60.00452853679661</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>41.16866929531102</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>62.95211466789249</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>78.11460343360903</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>75.60443117618564</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>55.16974150180818</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>42.72266020298008</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>43.31265430450441</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>58.53444118976597</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>47.71017317771913</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>68.91451972484595</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>55.54292292118078</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>56.83026105403906</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>52.93342151165012</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>44.99489817619326</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>58.6465201330185</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>41.1257571411133</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>42.28463698863987</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>67.22822903633119</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>70.80754910469057</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>77.19701586723329</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>73.29387097358705</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>69.04873363018038</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>51.95509857654577</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>69.50622925281527</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>69.66087594032291</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>70.27274007320409</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>41.33585382938389</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>68.62257268905643</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>45.65282713890076</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>42.93755876064301</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>57.05811472415928</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>79.44450931072237</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>54.04609744071962</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>64.89758046150212</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>47.84528122425081</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>57.08375339508058</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>44.93930908679965</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>41.4918053007126</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>76.27010273933411</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>60.56477754116059</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>72.45079517364502</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>58.64603663444524</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>45.03945952415472</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>71.2057466077805</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>42.98718690872192</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>55.91486578941351</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>73.32211258888248</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>56.37633537292481</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>78.73352797031407</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>49.09416466236121</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>78.37851417541509</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>71.79321062088013</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>41.62156836986543</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>40.13818150043488</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>39.86707126617432</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>68.18166835308079</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>45.07798045158387</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>58.57269056320195</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>43.54332286357885</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>44.33272369861606</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>74.12755497932437</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>57.88672530651093</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>52.37509325504305</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>73.75780441284184</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>45.62177725791935</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>76.38498994827273</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>41.15571418285373</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>50.71259334564212</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>56.21778095722203</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>62.43731452941898</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>51.56903490066532</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>75.80075146675114</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>77.96983203887942</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>46.46574719905857</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>74.95479454517368</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>77.14491724014283</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>64.50329068660739</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>43.13175298213963</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>41.88863178730014</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>40.29316597461701</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>74.12776030063634</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>47.95180324554445</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>55.14828873634343</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>52.42561554431916</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>41.28396714687352</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>63.26654107570653</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>51.16000835418703</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>39.87728434562689</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>64.5394206142426</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>73.67568251132968</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>52.43664990901948</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>39.61131376743322</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>40.59217341423039</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>53.38310167789462</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>48.83375100612642</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>78.64489539623264</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>42.73602595806125</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>78.47907525539404</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>47.96325487613683</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>73.7517706155777</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>67.48268175125122</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>78.58231213569644</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>39.31703534126285</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>59.64629583358766</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>39.27097051143647</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>66.4940066480637</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>52.2661736106873</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>65.1052199172974</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>75.47994685173035</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>66.64206980705262</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>63.37704368114476</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>54.85167891979222</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>77.22374737739568</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>58.82159297943122</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>50.88087734222415</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>70.50018310070038</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>79.05776343822481</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>78.2931071329117</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>46.81129634380341</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>40.41826626300815</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>68.87304481983188</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>60.41547583103181</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>71.21692006111147</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>72.24754694461825</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>45.24414500236514</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>59.57904979228977</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>40.00643145084382</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>40.55872591018681</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>70.52801407337193</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>57.29885727405554</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>50.02744937419891</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>76.44531467437747</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>60.98957408905034</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>73.07410431385046</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>74.26547791481022</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>42.99041244030002</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>74.13770182609562</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>78.71858587741855</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>72.49966826915744</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>57.97515918254857</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>58.5296459436417</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>51.35111613273625</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>78.88398875236516</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>43.35110899925235</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>78.01582401275641</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>55.29970989227297</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>56.76911504268651</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>41.31001646041875</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>58.59894519805914</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>39.80318322181705</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>66.40002909660342</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>77.13635335445406</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>42.30499691486364</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>44.11748073101046</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>39.72579033374791</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>68.2003128528595</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>77.86892654895786</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>39.83169639110565</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>39.92869415283207</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>52.34342741012574</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>55.57843026161197</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>42.21478137969973</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>63.84940854072573</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>68.27921584606173</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>75.86491768836981</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>60.8953183603287</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>51.76185810565948</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>60.26618074417115</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>67.61909458160403</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>74.50374998569492</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>58.98981074333193</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>46.57905144691472</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>77.8487057113648</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>58.2213791751862</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>63.02333467006684</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>45.5288925457001</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>47.63929096221926</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>69.9020953655243</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>72.07987891197206</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>43.1957801151276</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>75.895696015358</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>67.31144377708438</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>54.98727046489716</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>64.85172757625583</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>51.52063868045809</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>45.53554230690008</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>73.77466725349427</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>75.41400559425358</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>43.09748419284824</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>74.96604085445409</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>67.95525193214417</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>40.25196924686435</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>50.15776217460632</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>41.97136965274814</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>43.66739654541016</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>55.57397280216219</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>50.62807382106786</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>54.19080260276797</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>42.78435594558721</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>76.69476019859314</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>77.2999745702744</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>77.82814046382907</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>48.21454829216009</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>70.94170340061191</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>44.42053498744968</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>43.86172985553742</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>52.93067947864535</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>45.24236334323888</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>59.44318669319159</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>49.82687694549566</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>51.36154115676879</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>62.49345335006717</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>73.96454972743993</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>65.31175328731541</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>40.31181047439577</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="n">
+        <v>73.30291835784914</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="n">
+        <v>71.63335142135622</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>68.13429873943335</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>71.45170166969302</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
+        <v>73.04922069549565</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="n">
+        <v>76.36614012718201</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="n">
+        <v>50.40282309532165</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="n">
+        <v>71.40289480686192</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="n">
+        <v>76.03210222244263</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="n">
+        <v>45.09422732830052</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="n">
+        <v>74.17691157341005</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="n">
+        <v>73.61981524467473</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>62.49023444175725</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="n">
+        <v>44.87590454101564</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="n">
+        <v>42.95030855178834</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>50.72417744159702</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="n">
+        <v>59.90218579769135</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="n">
+        <v>69.69480694293981</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>71.57029128551483</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="n">
+        <v>47.76713328361512</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="n">
+        <v>42.24912964820862</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>76.39801791667941</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>69.25198185920715</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>46.19539201736455</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
+        <v>75.67654531955725</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>52.11283170700074</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>77.87365556240087</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="n">
+        <v>65.14003843784337</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="n">
+        <v>45.14584245681766</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="n">
+        <v>76.03923548221593</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="n">
+        <v>62.17813280105594</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="n">
+        <v>55.52503347396851</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="n">
+        <v>62.95314127445226</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="n">
+        <v>41.38295188903811</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="n">
+        <v>46.43859842300418</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="n">
+        <v>49.42504989147187</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="n">
+        <v>74.58566656589511</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>41.58084851741796</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>62.27293163776403</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="n">
+        <v>52.80249274730687</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="n">
+        <v>61.98722372055056</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="n">
+        <v>60.42171494960786</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="n">
+        <v>59.30431000709535</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="n">
+        <v>63.05712658405309</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="n">
+        <v>77.63448935031897</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>74.46879237651831</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>51.75918892860415</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>42.85043629169468</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="n">
+        <v>39.86158720016482</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="n">
+        <v>77.99217894554141</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="n">
+        <v>39.80736250400548</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="n">
+        <v>75.08771028995517</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="n">
+        <v>57.86670979022983</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="n">
+        <v>52.80351935386659</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="n">
+        <v>56.26781974792482</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="n">
+        <v>54.78594298362736</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="n">
+        <v>65.64373135566711</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="n">
+        <v>60.9771620845795</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="n">
+        <v>72.73917889118195</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="n">
+        <v>73.44981582164769</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="n">
+        <v>48.43850085735323</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="n">
+        <v>69.69837026119234</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="n">
+        <v>72.08289249897007</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>55.26132805347447</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="n">
+        <v>70.10637020111085</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="n">
+        <v>71.3094603633881</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="n">
+        <v>61.74668649196627</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="n">
+        <v>48.46865659713751</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="n">
+        <v>70.19657911300663</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
+        <v>65.51369673252111</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="n">
+        <v>58.57303497314456</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="n">
+        <v>49.34155697345739</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="n">
+        <v>52.08897469520571</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="n">
+        <v>72.63484917163851</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="n">
+        <v>59.07707230091097</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="n">
+        <v>64.92616648674016</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="n">
+        <v>63.23268292903902</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="n">
+        <v>44.5191090869904</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="n">
+        <v>73.36495188713076</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="n">
+        <v>73.65361378192904</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="n">
+        <v>46.65623901367189</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="n">
+        <v>58.32228466510776</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="n">
+        <v>55.77413458824162</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="n">
+        <v>76.44455962181092</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="n">
+        <v>75.33771216869354</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="n">
+        <v>75.41701918125159</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="n">
+        <v>72.90506526470188</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="n">
+        <v>70.24785645484928</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="n">
+        <v>47.39676675319674</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" t="n">
+        <v>60.55133893013004</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" t="n">
+        <v>45.50914858341218</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" t="n">
+        <v>42.71628199577333</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" t="n">
+        <v>69.43925476551055</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" t="n">
+        <v>76.91061913013459</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" t="n">
+        <v>63.69195358753205</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" t="n">
+        <v>41.32639580249787</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" t="n">
+        <v>70.29378219604496</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B511" t="n">
+        <v>77.9725740718842</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" t="n">
+        <v>63.98060885906222</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B513" t="n">
+        <v>55.49219531059271</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B514" t="n">
+        <v>39.80798509120945</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B515" t="n">
+        <v>57.20960873603826</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B516" t="n">
+        <v>40.30262400150303</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B517" t="n">
+        <v>68.18256249427799</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" t="n">
+        <v>74.34108252048497</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B519" t="n">
+        <v>75.77600693702698</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="B520" t="n">
+        <v>66.45411470413211</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" t="n">
+        <v>55.85666713237765</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" t="n">
+        <v>41.75125858306887</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" t="n">
+        <v>66.79233189105992</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" t="n">
+        <v>52.52946838855746</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" t="n">
+        <v>58.54581996440891</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" t="n">
+        <v>45.72925965309145</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" t="n">
+        <v>69.71907459735871</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" t="n">
+        <v>76.2907342195511</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" t="n">
+        <v>52.42897354125978</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" t="n">
+        <v>49.04110566139224</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" t="n">
+        <v>76.97532845973973</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" t="n">
+        <v>52.53782695293432</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>